--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_671.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_671.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32276-d1235777-Reviews-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Rodeway-Inn-Cypress.h2461633.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_671.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_671.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,486 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r546711024-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>32276</t>
+  </si>
+  <si>
+    <t>1235777</t>
+  </si>
+  <si>
+    <t>546711024</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>One of the better locations in Los Angeles</t>
+  </si>
+  <si>
+    <t>I recently had to stay at several Rodeway Inns in the Los Angeles area.  Of the 3 locations, this was by far the best.  The rooms are newly renovated and clean with all the amenities one would need.  Location is safe and quiet.  Would recommend and probably will stay at this location again.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r510600517-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>510600517</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Not great, not awful</t>
+  </si>
+  <si>
+    <t>Upon entering this hotel, one notices the staff definitely live here. Surrounding the parking lot is the owner's "backyard" consisting of a full blown veggie garden collection and numerous plants in pots. In the back of the lot are broken down classic cars and a makeshift break area for what I can only figure is a construction crew renovating rooms.The staff aren't too helpful, but not absent either. The room, worn but pleasant was inviting enough to distract you from the mediocre cleaning/maintenance and ant problem. Good parking, modest but good free breakfast, close to the theme parks and freeway. I'd give it a solid "Meh." At least the price is right...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Upon entering this hotel, one notices the staff definitely live here. Surrounding the parking lot is the owner's "backyard" consisting of a full blown veggie garden collection and numerous plants in pots. In the back of the lot are broken down classic cars and a makeshift break area for what I can only figure is a construction crew renovating rooms.The staff aren't too helpful, but not absent either. The room, worn but pleasant was inviting enough to distract you from the mediocre cleaning/maintenance and ant problem. Good parking, modest but good free breakfast, close to the theme parks and freeway. I'd give it a solid "Meh." At least the price is right...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r441090618-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>441090618</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would happily stay here again. </t>
+  </si>
+  <si>
+    <t>I had to make an emergency flight, my grandmother was put on life support. By the time I stumbled into this hotel, I had been awake no less than 48 emotionally exhausting hours. The gentleman that assisted me was kind and efficient at his job (I think he was the owner). My husband and a friend had booked the hotel for me from back home. I was nervous but there was no reason for it. My room was clean and just what I needed. The most surprising and best part was I was able to take a nice hot shower (I've never gotten truly hot water at a hotel before)! The next morning, the same gentleman asked me how I slept, if I needed anything, and offered to print directions for me. He was Extremely helpful. Honestly, if I was looking for something to be wrong with hotel or room, I'm sure I could find something to complain about. In all honesty, I felt safe, I felt comfortable, it felt clean, I would happily stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I had to make an emergency flight, my grandmother was put on life support. By the time I stumbled into this hotel, I had been awake no less than 48 emotionally exhausting hours. The gentleman that assisted me was kind and efficient at his job (I think he was the owner). My husband and a friend had booked the hotel for me from back home. I was nervous but there was no reason for it. My room was clean and just what I needed. The most surprising and best part was I was able to take a nice hot shower (I've never gotten truly hot water at a hotel before)! The next morning, the same gentleman asked me how I slept, if I needed anything, and offered to print directions for me. He was Extremely helpful. Honestly, if I was looking for something to be wrong with hotel or room, I'm sure I could find something to complain about. In all honesty, I felt safe, I felt comfortable, it felt clean, I would happily stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r324291517-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>324291517</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Not great!</t>
+  </si>
+  <si>
+    <t>The hotel is located close to Knotts Berry Farm which is good for those wanting a cheap and good location. The room on the other hand was not pleasant. The sheets were stained and the AC did not work very well. The staff was nice and room service did clean the room. I would prefer to pay extra next time just to get a better room somewhere else.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r323530574-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>323530574</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>I stayed here for about one month.  My room was cleaned daily to perfection.  The hotel staff was very courteous and helpful.  The hotel rooms are in the process of being renovated.  I'd definitely request a newly renovated room.  Very nice and comfortable.Choice Hotels Elite Diamond Status Member</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r311922321-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>311922321</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>2 One Week Stays were Comfortable and Convenient.</t>
+  </si>
+  <si>
+    <t>I needed a place to stay that was affordable and close to the Los Alamitos Medical Center where I needed to be to visit with my cousin.  I'm rating this place as excellent because it fit all of my needs.  The family that owns this place were very considerate.  I liked the location of my room within the hotel, and I was happy that they were able to give me the same room when I came back for another week.  The room was clean and a good size, and I made use of the refrigerator and microwave that was in my room.  I can't comment on the included breakfast since I was always on the run, and I didn't use that amenity.  I've been told that Cypress is a safe location, and I felt that at the Rodeway Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a place to stay that was affordable and close to the Los Alamitos Medical Center where I needed to be to visit with my cousin.  I'm rating this place as excellent because it fit all of my needs.  The family that owns this place were very considerate.  I liked the location of my room within the hotel, and I was happy that they were able to give me the same room when I came back for another week.  The room was clean and a good size, and I made use of the refrigerator and microwave that was in my room.  I can't comment on the included breakfast since I was always on the run, and I didn't use that amenity.  I've been told that Cypress is a safe location, and I felt that at the Rodeway Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r284041382-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>284041382</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>No coffee pot in the room</t>
+  </si>
+  <si>
+    <t>I would have given this hotel a better than average rating..if there was a coffee pot..there is a frig and microwave, which are useless to me..coffee isn't even served till 6:30 am in the lobby..room is clean but I'm sorry without a coffee pot I won't stay here again...</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r280246750-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>280246750</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>A Very nice location and Comfortable Stay.</t>
+  </si>
+  <si>
+    <t>My first time staying. Last minute plans with friends so we selected a hotel close to Anaheim packing house. I did read the reviews and was skeptical but I was amazed as soon as I opened the door of my 3rd floor room. It smelled nice, big flat screen tv, amazing bed, ac quite and very effective. Also a very comfy leather recliner for a single person. Everything good and very clean. Internet access sucked but who cares as we didn't needed it. This is very close to DownTown Anaheim / Disneyland / Long BeachI will definitely be coming back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r266163978-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>266163978</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Looking for an inexpensive place to stay which met my needs. The bed sheets needed to be changed which they were changed the following day. The cleaning service was excellent. The room was very clean and the hotel was located in a safe and convenient location. I give this hotel and excellent recommendation.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r216151828-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>216151828</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Clean, quiet, safe area, considerate owners and staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here based on price, location and other reviews.  We had a basic room with a fridge and microwave. Our room was clean, plenty of towels and the beds were comfortable.  Owner was super friendly, and wished our son well and how his day went (we were there for baseball) On the day we were leaving we had to leave at 5am. The owner was up early to make us coffee and have breakfast for us. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r209589465-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>209589465</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Needs some improvements</t>
+  </si>
+  <si>
+    <t>The reason we stayed here is because it was centrally located to where we need to go.  Close enough to Los Angeles and the beach.  The hotel exterior was actually very nice and had adequate parking.  Checking in was quick and the lady was nice.  The room itself was kind of old and have a mild musty smell.  The bathroom is semi-clean but some of the towel was old.  One hand towel by the sink had stains on it.  The room has a couple of nice chairs and table but wasn't really necessary as it took away some much needed space.  Regular chairs would suffice. The beds are comfortable and the bedding seems clean but here is the problem.  We woke up to find a bedbug crawling.  Kind of freaked us out and hoping it was the only one.  Breakfast is limited.  Just cereals, pastries, toasts, and some fruits and yogurts. I would suggest to them that they hire more people to clean the room more thoroughly, change old towels more often, and get a professional to get rid of bedbug(s).  I don't have major issues with slight smells, or slight uncleanliness but bedbug is a deal breaker.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>The reason we stayed here is because it was centrally located to where we need to go.  Close enough to Los Angeles and the beach.  The hotel exterior was actually very nice and had adequate parking.  Checking in was quick and the lady was nice.  The room itself was kind of old and have a mild musty smell.  The bathroom is semi-clean but some of the towel was old.  One hand towel by the sink had stains on it.  The room has a couple of nice chairs and table but wasn't really necessary as it took away some much needed space.  Regular chairs would suffice. The beds are comfortable and the bedding seems clean but here is the problem.  We woke up to find a bedbug crawling.  Kind of freaked us out and hoping it was the only one.  Breakfast is limited.  Just cereals, pastries, toasts, and some fruits and yogurts. I would suggest to them that they hire more people to clean the room more thoroughly, change old towels more often, and get a professional to get rid of bedbug(s).  I don't have major issues with slight smells, or slight uncleanliness but bedbug is a deal breaker.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r181077945-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>181077945</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Surprisingly close to the beach, cheap and clean</t>
+  </si>
+  <si>
+    <t>Need a cheap room that's close to the beach (Seal Beach) and NOT awful try Rodeway Inn in Cypress. It's about 10-15min north of Seal beach and around $60 for a room and can be 10% cheaper (check special rates on their website). I'll get right to the point. It's about two miles off the 605 Fwy tucked between strip malls. Lobby and room was clean and updated, not shabby or old smelling. Staff friendly. I wouldn't walk barefoot on the carpet but everything else was fine. Room came with a small fridge, microwave, table with chairs, hairdryer. Lacking in extra amenities like...who cares?! For under $65 I was relieved it didn't smell bad and it wasn't in the ghetto. Close to mall and decent Asian restaurants. There are tradeoffs however: Bedding was thin, pillow soft (good), mattress though not firm seemed comfortable at first but through the night I couldn't really get comfortable. For a Saturday night wasn't busy or loud but the walls are thin as you could hear people walking and talking if they passed your room if you're a light sleeper. I never think to bring earplugs when I travel but I will now!Didn't bother with breakfast so can't comment on it. Don't be misled that this area is just for tourists going to Disneyland. It took me hours of searching before I considered this area. If I had more cash, I'd splurge on the Varden...Need a cheap room that's close to the beach (Seal Beach) and NOT awful try Rodeway Inn in Cypress. It's about 10-15min north of Seal beach and around $60 for a room and can be 10% cheaper (check special rates on their website). I'll get right to the point. It's about two miles off the 605 Fwy tucked between strip malls. Lobby and room was clean and updated, not shabby or old smelling. Staff friendly. I wouldn't walk barefoot on the carpet but everything else was fine. Room came with a small fridge, microwave, table with chairs, hairdryer. Lacking in extra amenities like...who cares?! For under $65 I was relieved it didn't smell bad and it wasn't in the ghetto. Close to mall and decent Asian restaurants. There are tradeoffs however: Bedding was thin, pillow soft (good), mattress though not firm seemed comfortable at first but through the night I couldn't really get comfortable. For a Saturday night wasn't busy or loud but the walls are thin as you could hear people walking and talking if they passed your room if you're a light sleeper. I never think to bring earplugs when I travel but I will now!Didn't bother with breakfast so can't comment on it. Don't be misled that this area is just for tourists going to Disneyland. It took me hours of searching before I considered this area. If I had more cash, I'd splurge on the Varden in Long Beach - their beds are heavenly, but I was so glad to find this place as a cheap option for the beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Need a cheap room that's close to the beach (Seal Beach) and NOT awful try Rodeway Inn in Cypress. It's about 10-15min north of Seal beach and around $60 for a room and can be 10% cheaper (check special rates on their website). I'll get right to the point. It's about two miles off the 605 Fwy tucked between strip malls. Lobby and room was clean and updated, not shabby or old smelling. Staff friendly. I wouldn't walk barefoot on the carpet but everything else was fine. Room came with a small fridge, microwave, table with chairs, hairdryer. Lacking in extra amenities like...who cares?! For under $65 I was relieved it didn't smell bad and it wasn't in the ghetto. Close to mall and decent Asian restaurants. There are tradeoffs however: Bedding was thin, pillow soft (good), mattress though not firm seemed comfortable at first but through the night I couldn't really get comfortable. For a Saturday night wasn't busy or loud but the walls are thin as you could hear people walking and talking if they passed your room if you're a light sleeper. I never think to bring earplugs when I travel but I will now!Didn't bother with breakfast so can't comment on it. Don't be misled that this area is just for tourists going to Disneyland. It took me hours of searching before I considered this area. If I had more cash, I'd splurge on the Varden...Need a cheap room that's close to the beach (Seal Beach) and NOT awful try Rodeway Inn in Cypress. It's about 10-15min north of Seal beach and around $60 for a room and can be 10% cheaper (check special rates on their website). I'll get right to the point. It's about two miles off the 605 Fwy tucked between strip malls. Lobby and room was clean and updated, not shabby or old smelling. Staff friendly. I wouldn't walk barefoot on the carpet but everything else was fine. Room came with a small fridge, microwave, table with chairs, hairdryer. Lacking in extra amenities like...who cares?! For under $65 I was relieved it didn't smell bad and it wasn't in the ghetto. Close to mall and decent Asian restaurants. There are tradeoffs however: Bedding was thin, pillow soft (good), mattress though not firm seemed comfortable at first but through the night I couldn't really get comfortable. For a Saturday night wasn't busy or loud but the walls are thin as you could hear people walking and talking if they passed your room if you're a light sleeper. I never think to bring earplugs when I travel but I will now!Didn't bother with breakfast so can't comment on it. Don't be misled that this area is just for tourists going to Disneyland. It took me hours of searching before I considered this area. If I had more cash, I'd splurge on the Varden in Long Beach - their beds are heavenly, but I was so glad to find this place as a cheap option for the beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r153493253-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>153493253</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Did you sleep on my pillow?</t>
+  </si>
+  <si>
+    <t>I stayed here twice in October 2012. First was on a whim when my boyfriend and I decided to go to the Queen Mary after a trip to Disneyland. This inn had a platinum medal on the Choice Hotel's website and we figured they don't just give those out to anyone! We showed up late, around 1:00 am, and were checked in through a glass window which made me wonder about the crime in the area. The man never asked to see my ID. Room was older but looked very nice, bed was made immaculately, there were seals on the toilet, nice touch.The pillows in the room are small but soooo comfy! I always bring a pillow of my own just in case but I didn't need to use it this time! In the morning I called for an extended checkout, but room service kept knocking on the door asking me when I was going to leave, defeating the purpose of the extended checkout. Check out went smoothly. On the way home that evening I realized I had left my pillow in the room. I called them as soon as I got home and they told me to call back tomorrow morning. Strange but ok. I called back the next day and was told to call back in 5 minutes. Called back in 5 minutes and was told that there was someone in the room I had stayed in and...I stayed here twice in October 2012. First was on a whim when my boyfriend and I decided to go to the Queen Mary after a trip to Disneyland. This inn had a platinum medal on the Choice Hotel's website and we figured they don't just give those out to anyone! We showed up late, around 1:00 am, and were checked in through a glass window which made me wonder about the crime in the area. The man never asked to see my ID. Room was older but looked very nice, bed was made immaculately, there were seals on the toilet, nice touch.The pillows in the room are small but soooo comfy! I always bring a pillow of my own just in case but I didn't need to use it this time! In the morning I called for an extended checkout, but room service kept knocking on the door asking me when I was going to leave, defeating the purpose of the extended checkout. Check out went smoothly. On the way home that evening I realized I had left my pillow in the room. I called them as soon as I got home and they told me to call back tomorrow morning. Strange but ok. I called back the next day and was told to call back in 5 minutes. Called back in 5 minutes and was told that there was someone in the room I had stayed in and so they couldn't check the room. That left me wondering just how thoroughly they actually clean the room when housekeeping didn't notice a large pillow of an entirely different color on the bed. And then I thought OMG SOMEONE IS SLEEPING ON MY PILLOW! I was completely disgusted. I called back again that afternoon and they told me they had found my pillow. I had already booked another stay the following week and said I would pick it up then since I live 4 hours away. When we went to stay on October 25th and I inquired about my pillow, front desk had no idea what I was talking about. Finally, they located my now very dirty pillow, covered in wheel marks and returned it to me. Yay. Elevator had dirty handprints still on the doors from the week before. They put us in the same room as the before and this time discovered that previous occupants had written vulgar messages on the sheets of the bed! I was appalled. Requested extended checkout was also once again interrupted by housekeeping. This motel does not deserve its medal on the Choice Website.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I stayed here twice in October 2012. First was on a whim when my boyfriend and I decided to go to the Queen Mary after a trip to Disneyland. This inn had a platinum medal on the Choice Hotel's website and we figured they don't just give those out to anyone! We showed up late, around 1:00 am, and were checked in through a glass window which made me wonder about the crime in the area. The man never asked to see my ID. Room was older but looked very nice, bed was made immaculately, there were seals on the toilet, nice touch.The pillows in the room are small but soooo comfy! I always bring a pillow of my own just in case but I didn't need to use it this time! In the morning I called for an extended checkout, but room service kept knocking on the door asking me when I was going to leave, defeating the purpose of the extended checkout. Check out went smoothly. On the way home that evening I realized I had left my pillow in the room. I called them as soon as I got home and they told me to call back tomorrow morning. Strange but ok. I called back the next day and was told to call back in 5 minutes. Called back in 5 minutes and was told that there was someone in the room I had stayed in and...I stayed here twice in October 2012. First was on a whim when my boyfriend and I decided to go to the Queen Mary after a trip to Disneyland. This inn had a platinum medal on the Choice Hotel's website and we figured they don't just give those out to anyone! We showed up late, around 1:00 am, and were checked in through a glass window which made me wonder about the crime in the area. The man never asked to see my ID. Room was older but looked very nice, bed was made immaculately, there were seals on the toilet, nice touch.The pillows in the room are small but soooo comfy! I always bring a pillow of my own just in case but I didn't need to use it this time! In the morning I called for an extended checkout, but room service kept knocking on the door asking me when I was going to leave, defeating the purpose of the extended checkout. Check out went smoothly. On the way home that evening I realized I had left my pillow in the room. I called them as soon as I got home and they told me to call back tomorrow morning. Strange but ok. I called back the next day and was told to call back in 5 minutes. Called back in 5 minutes and was told that there was someone in the room I had stayed in and so they couldn't check the room. That left me wondering just how thoroughly they actually clean the room when housekeeping didn't notice a large pillow of an entirely different color on the bed. And then I thought OMG SOMEONE IS SLEEPING ON MY PILLOW! I was completely disgusted. I called back again that afternoon and they told me they had found my pillow. I had already booked another stay the following week and said I would pick it up then since I live 4 hours away. When we went to stay on October 25th and I inquired about my pillow, front desk had no idea what I was talking about. Finally, they located my now very dirty pillow, covered in wheel marks and returned it to me. Yay. Elevator had dirty handprints still on the doors from the week before. They put us in the same room as the before and this time discovered that previous occupants had written vulgar messages on the sheets of the bed! I was appalled. Requested extended checkout was also once again interrupted by housekeeping. This motel does not deserve its medal on the Choice Website.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r150118955-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>150118955</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Clean and no bugs</t>
+  </si>
+  <si>
+    <t>We travel a lot as a family.  The toughest part is finding a reasonably priced room that is clean and has no bugs, especially in Southern CA.  The beds were comfortable and clean.  I pull back sheets to check beds for bed bugs in every room we stay in.  The beds in this room were not only clean, but newer.  The furniture was a bit dated, but, I am not too concerned about that as I am saving money on this room.  Bathroom was clean.  Had shampoo &amp; conditioner and front desk had razors and other personal hygiene products that we had forgotten on this trip.  Front desk clerk was pleasant and helpful.  Would defiantly come back here on next trip to Knotts Berry Farm or Disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>We travel a lot as a family.  The toughest part is finding a reasonably priced room that is clean and has no bugs, especially in Southern CA.  The beds were comfortable and clean.  I pull back sheets to check beds for bed bugs in every room we stay in.  The beds in this room were not only clean, but newer.  The furniture was a bit dated, but, I am not too concerned about that as I am saving money on this room.  Bathroom was clean.  Had shampoo &amp; conditioner and front desk had razors and other personal hygiene products that we had forgotten on this trip.  Front desk clerk was pleasant and helpful.  Would defiantly come back here on next trip to Knotts Berry Farm or Disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r148477812-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>148477812</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>YUK!!!</t>
+  </si>
+  <si>
+    <t>The desk clerk not pleasant and the room was nasty. The carpet was dirty and not vacuumed, tub dirty, pillow cases dirty (sheets were clean), bathroom floor dirty, nails coming through closet shelf, graffiti on closet wall, missing smoke detector, no security latch on door and beat up furniture.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r135904631-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>135904631</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Run down</t>
+  </si>
+  <si>
+    <t>Stayed for three nights.  The place was less than clean, smelled musty, noisy (unusable) ceiling fan, and the internet was sporadic even though they had three choices.  Gratis breakfast was not worth considering, in that there was very little variety and the drink machine was partially out of order every time.  The walkways were deteriorating at every stairway, and the surfaces were rough (noisy for rolling suitcases).  The TV sattelite was hard to operate, and demanded four keystrokes just to get to the point where you could use the remote.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r132403453-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>132403453</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>not going back</t>
+  </si>
+  <si>
+    <t>Picked this place to stay for a few nights because of the location, reviews and price but it was a mistake.  As per KdeBz, the bathroom fan so noisy, asked the manager or owner to take a look who said he will but nothing happened.  Asked the maid with note for extra pillows because their pillows are so tiny and soft.  Maid took the tips we left but there was no extra pillows.  I mentioned to the manager or owner again,  said he will mention to the maids but pillows did not show up after we go back.  Gave up and went to the front and asked for it.  Bathroom towels are gross and need to replaced.  One with a big stain, i mean half the towel and the other has hole in it.  It's like a rag.  I took some pictures.  Wireless was terrible as our was almost at the end of the hall.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Picked this place to stay for a few nights because of the location, reviews and price but it was a mistake.  As per KdeBz, the bathroom fan so noisy, asked the manager or owner to take a look who said he will but nothing happened.  Asked the maid with note for extra pillows because their pillows are so tiny and soft.  Maid took the tips we left but there was no extra pillows.  I mentioned to the manager or owner again,  said he will mention to the maids but pillows did not show up after we go back.  Gave up and went to the front and asked for it.  Bathroom towels are gross and need to replaced.  One with a big stain, i mean half the towel and the other has hole in it.  It's like a rag.  I took some pictures.  Wireless was terrible as our was almost at the end of the hall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r125909921-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>125909921</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Just a room</t>
+  </si>
+  <si>
+    <t>It´s clean. If you need a place to sleep after a long day at Knott´s Berry Farm, this is OK.  Free wi-fi and free parking, microwave and mini-fridge.  "Free breakfast" means cereal (2 choices), bad coffee, juice.  The bathroom light buzzes and the bathroom fan is loud.  The room looks out over the parking lot and the tire place next door.  Traffic noise is pretty audible.  The area is sleazy.  For the price, it´s OK, but I think you could get a nicer room in a nicer property in a more convenient location for the same amount of money.  If you are looking to hang out in your room and relax, look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>It´s clean. If you need a place to sleep after a long day at Knott´s Berry Farm, this is OK.  Free wi-fi and free parking, microwave and mini-fridge.  "Free breakfast" means cereal (2 choices), bad coffee, juice.  The bathroom light buzzes and the bathroom fan is loud.  The room looks out over the parking lot and the tire place next door.  Traffic noise is pretty audible.  The area is sleazy.  For the price, it´s OK, but I think you could get a nicer room in a nicer property in a more convenient location for the same amount of money.  If you are looking to hang out in your room and relax, look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r120585103-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>120585103</t>
+  </si>
+  <si>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>Me and My son's vacation to BlizzCon!</t>
+  </si>
+  <si>
+    <t>It was really far from the convention center but the room was excellent, Breakfast was served everyday and even early if we had to leave before serving hours. It was clean, beautiful and basic. No pool but there was an incident that happened that made everything so perfect. We had never rode the bus system before and was unfamiliar with how it worked. We had taken a bus from the Convention Center to our first stop on a Sat night, Once at this stop we realized after a half hour and a bystander that there was no more service for the night. I remembered being given the card to our hotel and was told if we needed anything to call. I did and this couple quickly came to our rescue and took us back to the hotel @ 11:30 at night and wouldnt take a penny for gas! It doesnt get any better than that. I will be always greatful as I had my young son with me. Thank You Sooooo Much.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>It was really far from the convention center but the room was excellent, Breakfast was served everyday and even early if we had to leave before serving hours. It was clean, beautiful and basic. No pool but there was an incident that happened that made everything so perfect. We had never rode the bus system before and was unfamiliar with how it worked. We had taken a bus from the Convention Center to our first stop on a Sat night, Once at this stop we realized after a half hour and a bystander that there was no more service for the night. I remembered being given the card to our hotel and was told if we needed anything to call. I did and this couple quickly came to our rescue and took us back to the hotel @ 11:30 at night and wouldnt take a penny for gas! It doesnt get any better than that. I will be always greatful as I had my young son with me. Thank You Sooooo Much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r120244694-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>120244694</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Clean and Basic</t>
+  </si>
+  <si>
+    <t>I think this hotel is the best deal in LA right now.  For $54.00 a night, we had a clean, quiet room, within a 15-30 minute drive to Disneyland, Knotts, Cal State Long Beach, and Seal Beach.  Points farther north and west (Redondo, downtown LA) would be an easy drive up the 405.  The staff is welcoming and polite.  This hotel is perfect for a traveller who needs basic, clean, centrally located accommodations for a short trip. As an added bonus, there are several local restaurants that should not be missed.  Senor Big Ed's is two blocks away and serves up excellent Puerto Rican food.  Dalton's Diner on Valley View Street is a local haunt and bakes their own Cinnamon Bread and fruit pies.  A short drive to Seal Beach will reward you with A Slice Of New York Pizza, for honest-to-goodness NY thin crust pie.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I think this hotel is the best deal in LA right now.  For $54.00 a night, we had a clean, quiet room, within a 15-30 minute drive to Disneyland, Knotts, Cal State Long Beach, and Seal Beach.  Points farther north and west (Redondo, downtown LA) would be an easy drive up the 405.  The staff is welcoming and polite.  This hotel is perfect for a traveller who needs basic, clean, centrally located accommodations for a short trip. As an added bonus, there are several local restaurants that should not be missed.  Senor Big Ed's is two blocks away and serves up excellent Puerto Rican food.  Dalton's Diner on Valley View Street is a local haunt and bakes their own Cinnamon Bread and fruit pies.  A short drive to Seal Beach will reward you with A Slice Of New York Pizza, for honest-to-goodness NY thin crust pie.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r118036971-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>118036971</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Don't Trust Any Other Review!!!</t>
+  </si>
+  <si>
+    <t>We stayed just one night.. that was all it took! I would not stay again! The Inn is priced very low - because the rooms are substandard. If you want a truly clean and well -maintained room do not stay here. The CARPET WAS DIRTY, the SINK LEAKED, the FLOOR TILES were FILTHY and the bathroom had a horrible odor permeating the whole room. The A/C WOULD NOT STAY stay consistently COOL and the SHEETS SMELLED LIKE NO SOAP was USED to wash them... not to mention the BED was EXTREMELY HARD!! We weren't able to really sleep because we were very uncomfortable. We called the front desk to ask for a credit to be issued for the room because of the situation and the very nice lady said she would see what she could do to tell the manager and get the credit issued. There was no follow-up or further discussion- nothing was done!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>We stayed just one night.. that was all it took! I would not stay again! The Inn is priced very low - because the rooms are substandard. If you want a truly clean and well -maintained room do not stay here. The CARPET WAS DIRTY, the SINK LEAKED, the FLOOR TILES were FILTHY and the bathroom had a horrible odor permeating the whole room. The A/C WOULD NOT STAY stay consistently COOL and the SHEETS SMELLED LIKE NO SOAP was USED to wash them... not to mention the BED was EXTREMELY HARD!! We weren't able to really sleep because we were very uncomfortable. We called the front desk to ask for a credit to be issued for the room because of the situation and the very nice lady said she would see what she could do to tell the manager and get the credit issued. There was no follow-up or further discussion- nothing was done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r112984968-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>112984968</t>
+  </si>
+  <si>
+    <t>06/12/2011</t>
+  </si>
+  <si>
+    <t>Clean, Basic, and Extremely Friendly</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Rodeway Inn in Cypress to attend a Brazilian Jiu Jitsu tournament at Cal State Long Beach.  I chose this hotel because we needed the basics; cleanliness, a central location, and an affordable price.  The drive to the Walter Pyramid took only 10-15 minutes, a quick drive to the 605 south hooked into the 405.  The room was clean.  The grounds were well maintained.  The front desk was manned by a couple that I believe owns the hotel.  Upon check-in, we were greeted by a lovely woman with a warm hello.  They were extremely accommodating, our plans changed at the last minute and we needed to stay one extra night.  The day we checked out the same friendly woman thanked us profusely for our business.    We attend similar events a few times a year in the LA area, and we will definitely make this hotel our regular place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Rodeway Inn in Cypress to attend a Brazilian Jiu Jitsu tournament at Cal State Long Beach.  I chose this hotel because we needed the basics; cleanliness, a central location, and an affordable price.  The drive to the Walter Pyramid took only 10-15 minutes, a quick drive to the 605 south hooked into the 405.  The room was clean.  The grounds were well maintained.  The front desk was manned by a couple that I believe owns the hotel.  Upon check-in, we were greeted by a lovely woman with a warm hello.  They were extremely accommodating, our plans changed at the last minute and we needed to stay one extra night.  The day we checked out the same friendly woman thanked us profusely for our business.    We attend similar events a few times a year in the LA area, and we will definitely make this hotel our regular place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r105877125-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>105877125</t>
+  </si>
+  <si>
+    <t>04/27/2011</t>
+  </si>
+  <si>
+    <t>Great property for the price</t>
+  </si>
+  <si>
+    <t>We stayed here a couple of weeks ago with a sports team. The motel was well-maintained and quiet. The on-site managers were very helpful and even opened the continental breakfast bar early for us 2 days in row. Check-in was very easy as they already had all the room assignments &amp; keys made up when we walked in.  (Be aware that the beds are very very firm.) The team  travels to the area a couple times a year and we will be returning.  This property is much better than the Quality Inn down the street where we have also stayed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r83216357-Rodeway_Inn_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>83216357</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel compared to others I've stayed in in the area for the same price. The rooms are comfortable and clean.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1128,1538 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>50460</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_671.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_671.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>BJWheeler</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>AvGasser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r510600517-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Upon entering this hotel, one notices the staff definitely live here. Surrounding the parking lot is the owner's "backyard" consisting of a full blown veggie garden collection and numerous plants in pots. In the back of the lot are broken down classic cars and a makeshift break area for what I can only figure is a construction crew renovating rooms.The staff aren't too helpful, but not absent either. The room, worn but pleasant was inviting enough to distract you from the mediocre cleaning/maintenance and ant problem. Good parking, modest but good free breakfast, close to the theme parks and freeway. I'd give it a solid "Meh." At least the price is right...More</t>
   </si>
   <si>
+    <t>Nicole G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r441090618-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>I had to make an emergency flight, my grandmother was put on life support. By the time I stumbled into this hotel, I had been awake no less than 48 emotionally exhausting hours. The gentleman that assisted me was kind and efficient at his job (I think he was the owner). My husband and a friend had booked the hotel for me from back home. I was nervous but there was no reason for it. My room was clean and just what I needed. The most surprising and best part was I was able to take a nice hot shower (I've never gotten truly hot water at a hotel before)! The next morning, the same gentleman asked me how I slept, if I needed anything, and offered to print directions for me. He was Extremely helpful. Honestly, if I was looking for something to be wrong with hotel or room, I'm sure I could find something to complain about. In all honesty, I felt safe, I felt comfortable, it felt clean, I would happily stay there again. More</t>
   </si>
   <si>
+    <t>Emily N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r324291517-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Jill P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r323530574-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Sandy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r311922321-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>I needed a place to stay that was affordable and close to the Los Alamitos Medical Center where I needed to be to visit with my cousin.  I'm rating this place as excellent because it fit all of my needs.  The family that owns this place were very considerate.  I liked the location of my room within the hotel, and I was happy that they were able to give me the same room when I came back for another week.  The room was clean and a good size, and I made use of the refrigerator and microwave that was in my room.  I can't comment on the included breakfast since I was always on the run, and I didn't use that amenity.  I've been told that Cypress is a safe location, and I felt that at the Rodeway Inn.More</t>
   </si>
   <si>
+    <t>sandymccluskey1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r284041382-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>jasmeeroberoi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r280246750-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>quicktraveler_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r266163978-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Jessica K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r216151828-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t xml:space="preserve">We stayed here based on price, location and other reviews.  We had a basic room with a fridge and microwave. Our room was clean, plenty of towels and the beds were comfortable.  Owner was super friendly, and wished our son well and how his day went (we were there for baseball) On the day we were leaving we had to leave at 5am. The owner was up early to make us coffee and have breakfast for us. </t>
   </si>
   <si>
+    <t>RainbowCowboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r209589465-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>The reason we stayed here is because it was centrally located to where we need to go.  Close enough to Los Angeles and the beach.  The hotel exterior was actually very nice and had adequate parking.  Checking in was quick and the lady was nice.  The room itself was kind of old and have a mild musty smell.  The bathroom is semi-clean but some of the towel was old.  One hand towel by the sink had stains on it.  The room has a couple of nice chairs and table but wasn't really necessary as it took away some much needed space.  Regular chairs would suffice. The beds are comfortable and the bedding seems clean but here is the problem.  We woke up to find a bedbug crawling.  Kind of freaked us out and hoping it was the only one.  Breakfast is limited.  Just cereals, pastries, toasts, and some fruits and yogurts. I would suggest to them that they hire more people to clean the room more thoroughly, change old towels more often, and get a professional to get rid of bedbug(s).  I don't have major issues with slight smells, or slight uncleanliness but bedbug is a deal breaker.More</t>
   </si>
   <si>
+    <t>dreamEast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r181077945-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -396,6 +432,9 @@
     <t>Need a cheap room that's close to the beach (Seal Beach) and NOT awful try Rodeway Inn in Cypress. It's about 10-15min north of Seal beach and around $60 for a room and can be 10% cheaper (check special rates on their website). I'll get right to the point. It's about two miles off the 605 Fwy tucked between strip malls. Lobby and room was clean and updated, not shabby or old smelling. Staff friendly. I wouldn't walk barefoot on the carpet but everything else was fine. Room came with a small fridge, microwave, table with chairs, hairdryer. Lacking in extra amenities like...who cares?! For under $65 I was relieved it didn't smell bad and it wasn't in the ghetto. Close to mall and decent Asian restaurants. There are tradeoffs however: Bedding was thin, pillow soft (good), mattress though not firm seemed comfortable at first but through the night I couldn't really get comfortable. For a Saturday night wasn't busy or loud but the walls are thin as you could hear people walking and talking if they passed your room if you're a light sleeper. I never think to bring earplugs when I travel but I will now!Didn't bother with breakfast so can't comment on it. Don't be misled that this area is just for tourists going to Disneyland. It took me hours of searching before I considered this area. If I had more cash, I'd splurge on the Varden...Need a cheap room that's close to the beach (Seal Beach) and NOT awful try Rodeway Inn in Cypress. It's about 10-15min north of Seal beach and around $60 for a room and can be 10% cheaper (check special rates on their website). I'll get right to the point. It's about two miles off the 605 Fwy tucked between strip malls. Lobby and room was clean and updated, not shabby or old smelling. Staff friendly. I wouldn't walk barefoot on the carpet but everything else was fine. Room came with a small fridge, microwave, table with chairs, hairdryer. Lacking in extra amenities like...who cares?! For under $65 I was relieved it didn't smell bad and it wasn't in the ghetto. Close to mall and decent Asian restaurants. There are tradeoffs however: Bedding was thin, pillow soft (good), mattress though not firm seemed comfortable at first but through the night I couldn't really get comfortable. For a Saturday night wasn't busy or loud but the walls are thin as you could hear people walking and talking if they passed your room if you're a light sleeper. I never think to bring earplugs when I travel but I will now!Didn't bother with breakfast so can't comment on it. Don't be misled that this area is just for tourists going to Disneyland. It took me hours of searching before I considered this area. If I had more cash, I'd splurge on the Varden in Long Beach - their beds are heavenly, but I was so glad to find this place as a cheap option for the beach.More</t>
   </si>
   <si>
+    <t>KMDoll</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r153493253-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>I stayed here twice in October 2012. First was on a whim when my boyfriend and I decided to go to the Queen Mary after a trip to Disneyland. This inn had a platinum medal on the Choice Hotel's website and we figured they don't just give those out to anyone! We showed up late, around 1:00 am, and were checked in through a glass window which made me wonder about the crime in the area. The man never asked to see my ID. Room was older but looked very nice, bed was made immaculately, there were seals on the toilet, nice touch.The pillows in the room are small but soooo comfy! I always bring a pillow of my own just in case but I didn't need to use it this time! In the morning I called for an extended checkout, but room service kept knocking on the door asking me when I was going to leave, defeating the purpose of the extended checkout. Check out went smoothly. On the way home that evening I realized I had left my pillow in the room. I called them as soon as I got home and they told me to call back tomorrow morning. Strange but ok. I called back the next day and was told to call back in 5 minutes. Called back in 5 minutes and was told that there was someone in the room I had stayed in and...I stayed here twice in October 2012. First was on a whim when my boyfriend and I decided to go to the Queen Mary after a trip to Disneyland. This inn had a platinum medal on the Choice Hotel's website and we figured they don't just give those out to anyone! We showed up late, around 1:00 am, and were checked in through a glass window which made me wonder about the crime in the area. The man never asked to see my ID. Room was older but looked very nice, bed was made immaculately, there were seals on the toilet, nice touch.The pillows in the room are small but soooo comfy! I always bring a pillow of my own just in case but I didn't need to use it this time! In the morning I called for an extended checkout, but room service kept knocking on the door asking me when I was going to leave, defeating the purpose of the extended checkout. Check out went smoothly. On the way home that evening I realized I had left my pillow in the room. I called them as soon as I got home and they told me to call back tomorrow morning. Strange but ok. I called back the next day and was told to call back in 5 minutes. Called back in 5 minutes and was told that there was someone in the room I had stayed in and so they couldn't check the room. That left me wondering just how thoroughly they actually clean the room when housekeeping didn't notice a large pillow of an entirely different color on the bed. And then I thought OMG SOMEONE IS SLEEPING ON MY PILLOW! I was completely disgusted. I called back again that afternoon and they told me they had found my pillow. I had already booked another stay the following week and said I would pick it up then since I live 4 hours away. When we went to stay on October 25th and I inquired about my pillow, front desk had no idea what I was talking about. Finally, they located my now very dirty pillow, covered in wheel marks and returned it to me. Yay. Elevator had dirty handprints still on the doors from the week before. They put us in the same room as the before and this time discovered that previous occupants had written vulgar messages on the sheets of the bed! I was appalled. Requested extended checkout was also once again interrupted by housekeeping. This motel does not deserve its medal on the Choice Website.More</t>
   </si>
   <si>
+    <t>Amanda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r150118955-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
     <t>We travel a lot as a family.  The toughest part is finding a reasonably priced room that is clean and has no bugs, especially in Southern CA.  The beds were comfortable and clean.  I pull back sheets to check beds for bed bugs in every room we stay in.  The beds in this room were not only clean, but newer.  The furniture was a bit dated, but, I am not too concerned about that as I am saving money on this room.  Bathroom was clean.  Had shampoo &amp; conditioner and front desk had razors and other personal hygiene products that we had forgotten on this trip.  Front desk clerk was pleasant and helpful.  Would defiantly come back here on next trip to Knotts Berry Farm or Disneyland.More</t>
   </si>
   <si>
+    <t>Mmsauls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r148477812-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -453,6 +498,9 @@
     <t>The desk clerk not pleasant and the room was nasty. The carpet was dirty and not vacuumed, tub dirty, pillow cases dirty (sheets were clean), bathroom floor dirty, nails coming through closet shelf, graffiti on closet wall, missing smoke detector, no security latch on door and beat up furniture.</t>
   </si>
   <si>
+    <t>AnzaLen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r135904631-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -471,6 +519,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Calvin T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r132403453-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -492,6 +543,9 @@
     <t>Picked this place to stay for a few nights because of the location, reviews and price but it was a mistake.  As per KdeBz, the bathroom fan so noisy, asked the manager or owner to take a look who said he will but nothing happened.  Asked the maid with note for extra pillows because their pillows are so tiny and soft.  Maid took the tips we left but there was no extra pillows.  I mentioned to the manager or owner again,  said he will mention to the maids but pillows did not show up after we go back.  Gave up and went to the front and asked for it.  Bathroom towels are gross and need to replaced.  One with a big stain, i mean half the towel and the other has hole in it.  It's like a rag.  I took some pictures.  Wireless was terrible as our was almost at the end of the hall.More</t>
   </si>
   <si>
+    <t>KdeBz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r125909921-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -513,6 +567,9 @@
     <t>It´s clean. If you need a place to sleep after a long day at Knott´s Berry Farm, this is OK.  Free wi-fi and free parking, microwave and mini-fridge.  "Free breakfast" means cereal (2 choices), bad coffee, juice.  The bathroom light buzzes and the bathroom fan is loud.  The room looks out over the parking lot and the tire place next door.  Traffic noise is pretty audible.  The area is sleazy.  For the price, it´s OK, but I think you could get a nicer room in a nicer property in a more convenient location for the same amount of money.  If you are looking to hang out in your room and relax, look elsewhere.More</t>
   </si>
   <si>
+    <t>Ddozois</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r120585103-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -534,6 +591,9 @@
     <t>It was really far from the convention center but the room was excellent, Breakfast was served everyday and even early if we had to leave before serving hours. It was clean, beautiful and basic. No pool but there was an incident that happened that made everything so perfect. We had never rode the bus system before and was unfamiliar with how it worked. We had taken a bus from the Convention Center to our first stop on a Sat night, Once at this stop we realized after a half hour and a bystander that there was no more service for the night. I remembered being given the card to our hotel and was told if we needed anything to call. I did and this couple quickly came to our rescue and took us back to the hotel @ 11:30 at night and wouldnt take a penny for gas! It doesnt get any better than that. I will be always greatful as I had my young son with me. Thank You Sooooo Much.More</t>
   </si>
   <si>
+    <t>DagneyT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r120244694-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -555,6 +615,9 @@
     <t>I think this hotel is the best deal in LA right now.  For $54.00 a night, we had a clean, quiet room, within a 15-30 minute drive to Disneyland, Knotts, Cal State Long Beach, and Seal Beach.  Points farther north and west (Redondo, downtown LA) would be an easy drive up the 405.  The staff is welcoming and polite.  This hotel is perfect for a traveller who needs basic, clean, centrally located accommodations for a short trip. As an added bonus, there are several local restaurants that should not be missed.  Senor Big Ed's is two blocks away and serves up excellent Puerto Rican food.  Dalton's Diner on Valley View Street is a local haunt and bakes their own Cinnamon Bread and fruit pies.  A short drive to Seal Beach will reward you with A Slice Of New York Pizza, for honest-to-goodness NY thin crust pie.More</t>
   </si>
   <si>
+    <t>ConsciousAdvocate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r118036971-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -597,6 +660,9 @@
     <t>My husband and I stayed at the Rodeway Inn in Cypress to attend a Brazilian Jiu Jitsu tournament at Cal State Long Beach.  I chose this hotel because we needed the basics; cleanliness, a central location, and an affordable price.  The drive to the Walter Pyramid took only 10-15 minutes, a quick drive to the 605 south hooked into the 405.  The room was clean.  The grounds were well maintained.  The front desk was manned by a couple that I believe owns the hotel.  Upon check-in, we were greeted by a lovely woman with a warm hello.  They were extremely accommodating, our plans changed at the last minute and we needed to stay one extra night.  The day we checked out the same friendly woman thanked us profusely for our business.    We attend similar events a few times a year in the LA area, and we will definitely make this hotel our regular place to stay.More</t>
   </si>
   <si>
+    <t>Merry2006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r105877125-Rodeway_Inn_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -610,6 +676,9 @@
   </si>
   <si>
     <t>We stayed here a couple of weeks ago with a sports team. The motel was well-maintained and quiet. The on-site managers were very helpful and even opened the continental breakfast bar early for us 2 days in row. Check-in was very easy as they already had all the room assignments &amp; keys made up when we walked in.  (Be aware that the beds are very very firm.) The team  travels to the area a couple times a year and we will be returning.  This property is much better than the Quality Inn down the street where we have also stayed.</t>
+  </si>
+  <si>
+    <t>nicolealyse</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d1235777-r83216357-Rodeway_Inn_Cypress-Cypress_California.html</t>
@@ -1132,43 +1201,47 @@
       <c r="A2" t="n">
         <v>50460</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1188,50 +1261,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>50460</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1245,50 +1322,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>50460</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1302,50 +1383,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>50460</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1365,50 +1450,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>50460</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1428,50 +1517,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>50460</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1491,50 +1584,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>50460</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1548,50 +1645,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>50460</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1611,50 +1712,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>50460</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1668,41 +1773,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>50460</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
@@ -1731,50 +1840,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>50460</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1798,50 +1911,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>50460</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1865,50 +1982,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>50460</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1930,50 +2051,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>50460</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -1997,41 +2122,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>50460</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
@@ -2060,50 +2189,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>50460</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2127,50 +2260,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>50460</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2194,50 +2331,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>50460</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2261,50 +2402,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>50460</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2328,50 +2473,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>50460</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2395,50 +2544,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>50460</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2460,50 +2613,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>50460</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -2527,41 +2684,45 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>50460</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
@@ -2590,50 +2751,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>50460</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -2657,7 +2822,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
